--- a/Reports/IMPEXP/RetentionForCompany/Print_/Print_.xlsx
+++ b/Reports/IMPEXP/RetentionForCompany/Print_/Print_.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Width</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Сумма к удержанию</t>
   </si>
   <si>
-    <t>Адрес оплаты</t>
-  </si>
-  <si>
     <t>$t1['personnel_number']</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
   </si>
   <si>
     <t>$t1['Nazvanie_uchastka']</t>
-  </si>
-  <si>
-    <t>$t1['name_street'].', д.'.$t1['house'].', кв.'.$t1['room']</t>
   </si>
   <si>
     <t>$t1['fam']." ".$t1['im']." ".$t1['ot']</t>
@@ -140,7 +134,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -187,13 +181,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Cyr"/>
       <charset val="204"/>
@@ -325,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -357,27 +344,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="4" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -390,13 +371,19 @@
     <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -418,12 +405,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -725,10 +706,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -738,100 +719,92 @@
     <col min="3" max="3" width="46" customWidth="1"/>
     <col min="4" max="4" width="38.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" customWidth="1"/>
-    <col min="7" max="7" width="1.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="1.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" customHeight="1">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="16"/>
-      <c r="H1" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="I1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="3">
+      <c r="J1" s="3">
         <v>8</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" customHeight="1">
+    <row r="2" spans="1:17" ht="15.75" customHeight="1">
       <c r="A2" s="32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
       <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" customHeight="1">
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" customHeight="1">
       <c r="A3" s="32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" customHeight="1">
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" customHeight="1">
       <c r="A4" s="32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1">
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" customHeight="1">
       <c r="A5" s="32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1">
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1">
       <c r="A6" s="32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1">
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" spans="1:18" ht="25.5" customHeight="1">
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="1:17" ht="25.5" customHeight="1">
       <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
@@ -847,251 +820,238 @@
       <c r="E8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="6"/>
+      <c r="F8" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A9" s="40" t="s">
+    </row>
+    <row r="9" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="E9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>26</v>
+      <c r="F9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="7">
+      <c r="J9" s="7">
         <v>1</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="K9" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="L9" s="8"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-    </row>
-    <row r="10" spans="1:18">
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
       <c r="D10" s="36"/>
       <c r="E10" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="21"/>
-      <c r="I10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="H10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="10">
+      <c r="I10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="10">
         <v>1</v>
       </c>
+      <c r="K10" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="L10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="M10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="O10" s="10"/>
+      <c r="M10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="10"/>
+      <c r="O10" s="11"/>
       <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11">
+      <c r="Q10" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:17">
       <c r="A11" s="37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" s="38"/>
       <c r="C11" s="38"/>
       <c r="D11" s="39"/>
-      <c r="E11" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="21"/>
+      <c r="E11" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="H11" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="I11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="10">
+        <v>1</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="10"/>
+      <c r="O11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="H12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="3">
         <v>8</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="10">
-        <v>1</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="O11" s="10"/>
-      <c r="P11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="R11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="I12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="3">
-        <v>8</v>
-      </c>
-      <c r="L12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:17">
+      <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-    </row>
-    <row r="14" spans="1:18">
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
+      <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="27"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="25"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-    </row>
-    <row r="16" spans="1:18">
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
+      <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="27"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="25"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-    </row>
-    <row r="18" spans="1:18">
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
       <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
+      <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="M19" s="3" t="s">
+    </row>
+    <row r="19" spans="1:17">
+      <c r="L19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N19" s="12" t="s">
+      <c r="M19" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="I21" s="13" t="s">
+    <row r="20" spans="1:17">
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="H21" s="13" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="10">
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="32" fitToHeight="500" orientation="portrait" r:id="rId1"/>
